--- a/teaching/traditional_assets/database/data/china/china_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_reinsurance.xlsx
@@ -590,41 +590,47 @@
           <t>Reinsurance</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.127</v>
+      </c>
+      <c r="E2">
+        <v>-0.09480000000000001</v>
+      </c>
       <c r="G2">
-        <v>0.0431183303897913</v>
+        <v>0.05661306703513689</v>
       </c>
       <c r="H2">
-        <v>0.0431183303897913</v>
+        <v>0.05661306703513689</v>
       </c>
       <c r="I2">
-        <v>0.04771373043990472</v>
+        <v>0.05024039195002986</v>
       </c>
       <c r="J2">
-        <v>0.04043664481373949</v>
+        <v>0.0405461819614476</v>
       </c>
       <c r="K2">
-        <v>687.2</v>
+        <v>735.7</v>
       </c>
       <c r="L2">
-        <v>0.03418820427352554</v>
+        <v>0.03206824254523422</v>
       </c>
       <c r="M2">
-        <v>298.2</v>
+        <v>186.2</v>
       </c>
       <c r="N2">
-        <v>0.04271716708686683</v>
+        <v>0.04246294184720639</v>
       </c>
       <c r="O2">
-        <v>0.4339348079161816</v>
+        <v>0.253092293054234</v>
       </c>
       <c r="P2">
-        <v>298.2</v>
+        <v>186.2</v>
       </c>
       <c r="Q2">
-        <v>0.04271716708686683</v>
+        <v>0.04246294184720639</v>
       </c>
       <c r="R2">
-        <v>0.4339348079161816</v>
+        <v>0.253092293054234</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2661</v>
+        <v>1896.6</v>
       </c>
       <c r="V2">
-        <v>0.381188402475361</v>
+        <v>0.4325199543899658</v>
       </c>
       <c r="W2">
-        <v>0.05936420179682101</v>
+        <v>0.06127310130008579</v>
       </c>
       <c r="X2">
-        <v>0.1082574963709141</v>
+        <v>0.1648961547883717</v>
       </c>
       <c r="Y2">
-        <v>-0.04889329457409305</v>
+        <v>-0.103623053488286</v>
       </c>
       <c r="Z2">
-        <v>1.554340542650984</v>
+        <v>1.537358940681373</v>
       </c>
       <c r="AA2">
-        <v>0.06285231644277292</v>
+        <v>0.06233403534892529</v>
       </c>
       <c r="AB2">
-        <v>0.07071100125731877</v>
+        <v>0.07330197552344268</v>
       </c>
       <c r="AC2">
-        <v>-0.007858684814545852</v>
+        <v>-0.0109679401745174</v>
       </c>
       <c r="AD2">
-        <v>5810.5</v>
+        <v>7604.4</v>
       </c>
       <c r="AE2">
-        <v>170.1508064634756</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5980.650806463475</v>
+        <v>7604.4</v>
       </c>
       <c r="AG2">
-        <v>3319.650806463475</v>
+        <v>5707.799999999999</v>
       </c>
       <c r="AH2">
-        <v>0.4614183161873445</v>
+        <v>0.634260263232522</v>
       </c>
       <c r="AI2">
-        <v>0.3091326648502846</v>
+        <v>0.3536946683472946</v>
       </c>
       <c r="AJ2">
-        <v>0.3222820892829674</v>
+        <v>0.5655318642993025</v>
       </c>
       <c r="AK2">
-        <v>0.1989536243045416</v>
+        <v>0.2911652629914351</v>
       </c>
       <c r="AL2">
-        <v>336.2</v>
+        <v>402.6</v>
       </c>
       <c r="AM2">
-        <v>336.2</v>
+        <v>402.6</v>
       </c>
       <c r="AN2">
-        <v>5.489890400604686</v>
+        <v>6.178420539486512</v>
       </c>
       <c r="AO2">
-        <v>2.776026174895895</v>
+        <v>2.862891207153502</v>
       </c>
       <c r="AP2">
-        <v>3.136480353801469</v>
+        <v>4.637471563210919</v>
       </c>
       <c r="AQ2">
-        <v>2.776026174895895</v>
+        <v>2.862891207153502</v>
       </c>
     </row>
     <row r="3">
@@ -718,41 +724,47 @@
           <t>Reinsurance</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.127</v>
+      </c>
+      <c r="E3">
+        <v>-0.09480000000000001</v>
+      </c>
       <c r="G3">
-        <v>0.0431183303897913</v>
+        <v>0.05661306703513689</v>
       </c>
       <c r="H3">
-        <v>0.0431183303897913</v>
+        <v>0.05661306703513689</v>
       </c>
       <c r="I3">
-        <v>0.04771373043990472</v>
+        <v>0.05024039195002986</v>
       </c>
       <c r="J3">
-        <v>0.04043664481373949</v>
+        <v>0.0405461819614476</v>
       </c>
       <c r="K3">
-        <v>687.2</v>
+        <v>735.7</v>
       </c>
       <c r="L3">
-        <v>0.03418820427352554</v>
+        <v>0.03206824254523422</v>
       </c>
       <c r="M3">
-        <v>298.2</v>
+        <v>186.2</v>
       </c>
       <c r="N3">
-        <v>0.04271716708686683</v>
+        <v>0.04246294184720639</v>
       </c>
       <c r="O3">
-        <v>0.4339348079161816</v>
+        <v>0.253092293054234</v>
       </c>
       <c r="P3">
-        <v>298.2</v>
+        <v>186.2</v>
       </c>
       <c r="Q3">
-        <v>0.04271716708686683</v>
+        <v>0.04246294184720639</v>
       </c>
       <c r="R3">
-        <v>0.4339348079161816</v>
+        <v>0.253092293054234</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2661</v>
+        <v>1896.6</v>
       </c>
       <c r="V3">
-        <v>0.381188402475361</v>
+        <v>0.4325199543899658</v>
       </c>
       <c r="W3">
-        <v>0.05936420179682101</v>
+        <v>0.06127310130008579</v>
       </c>
       <c r="X3">
-        <v>0.1082574963709141</v>
+        <v>0.1648961547883717</v>
       </c>
       <c r="Y3">
-        <v>-0.04889329457409305</v>
+        <v>-0.103623053488286</v>
       </c>
       <c r="Z3">
-        <v>1.554340542650984</v>
+        <v>1.537358940681373</v>
       </c>
       <c r="AA3">
-        <v>0.06285231644277292</v>
+        <v>0.06233403534892529</v>
       </c>
       <c r="AB3">
-        <v>0.07071100125731877</v>
+        <v>0.07330197552344268</v>
       </c>
       <c r="AC3">
-        <v>-0.007858684814545852</v>
+        <v>-0.0109679401745174</v>
       </c>
       <c r="AD3">
-        <v>5810.5</v>
+        <v>7604.4</v>
       </c>
       <c r="AE3">
-        <v>170.1508064634756</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5980.650806463475</v>
+        <v>7604.4</v>
       </c>
       <c r="AG3">
-        <v>3319.650806463475</v>
+        <v>5707.799999999999</v>
       </c>
       <c r="AH3">
-        <v>0.4614183161873445</v>
+        <v>0.634260263232522</v>
       </c>
       <c r="AI3">
-        <v>0.3091326648502846</v>
+        <v>0.3536946683472946</v>
       </c>
       <c r="AJ3">
-        <v>0.3222820892829674</v>
+        <v>0.5655318642993025</v>
       </c>
       <c r="AK3">
-        <v>0.1989536243045416</v>
+        <v>0.2911652629914351</v>
       </c>
       <c r="AL3">
-        <v>336.2</v>
+        <v>402.6</v>
       </c>
       <c r="AM3">
-        <v>336.2</v>
+        <v>402.6</v>
       </c>
       <c r="AN3">
-        <v>5.489890400604686</v>
+        <v>6.178420539486512</v>
       </c>
       <c r="AO3">
-        <v>2.776026174895895</v>
+        <v>2.862891207153502</v>
       </c>
       <c r="AP3">
-        <v>3.136480353801469</v>
+        <v>4.637471563210919</v>
       </c>
       <c r="AQ3">
-        <v>2.776026174895895</v>
+        <v>2.862891207153502</v>
       </c>
     </row>
   </sheetData>
